--- a/Documentation/UV-index.xlsx
+++ b/Documentation/UV-index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\SevenSegmentClockNrf_2021\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF77F2A9-E5CE-486D-8DA5-B19AB3C7E1E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E4E492-3155-4197-8317-FD78510964C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{19285830-3B18-4BBF-A59C-919C9739D8B1}"/>
   </bookViews>
@@ -79,12 +79,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF78425"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -101,6 +95,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -243,21 +243,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,7 +581,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,21 +642,21 @@
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="15"/>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -675,7 +675,7 @@
       <c r="E5" s="2">
         <v>252</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="16">
         <v>252</v>
       </c>
       <c r="G5" s="3">
@@ -690,7 +690,7 @@
       <c r="J5" s="2">
         <v>255</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="16">
         <v>255</v>
       </c>
       <c r="L5" s="3">
@@ -699,16 +699,16 @@
       <c r="M5" s="2">
         <v>234</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="16">
         <v>234</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="16">
         <v>234</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="16">
         <v>234</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="16">
         <v>234</v>
       </c>
       <c r="R5" s="3">
@@ -726,13 +726,13 @@
         <v>214</v>
       </c>
       <c r="E6" s="4">
-        <v>158</v>
-      </c>
-      <c r="F6" s="22">
-        <v>158</v>
+        <v>246</v>
+      </c>
+      <c r="F6" s="17">
+        <v>246</v>
       </c>
       <c r="G6" s="5">
-        <v>158</v>
+        <v>246</v>
       </c>
       <c r="H6" s="4">
         <v>136</v>
@@ -743,7 +743,7 @@
       <c r="J6" s="4">
         <v>151</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="17">
         <v>151</v>
       </c>
       <c r="L6" s="5">
@@ -752,16 +752,16 @@
       <c r="M6" s="4">
         <v>143</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="17">
         <v>143</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="17">
         <v>143</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="17">
         <v>143</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="17">
         <v>143</v>
       </c>
       <c r="R6" s="5">
@@ -779,13 +779,13 @@
         <v>154</v>
       </c>
       <c r="E7" s="4">
-        <v>158</v>
-      </c>
-      <c r="F7" s="22">
-        <v>158</v>
+        <v>128</v>
+      </c>
+      <c r="F7" s="17">
+        <v>128</v>
       </c>
       <c r="G7" s="5">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="H7" s="4">
         <v>115</v>
@@ -796,7 +796,7 @@
       <c r="J7" s="4">
         <v>151</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="17">
         <v>151</v>
       </c>
       <c r="L7" s="5">
@@ -805,16 +805,16 @@
       <c r="M7" s="4">
         <v>255</v>
       </c>
-      <c r="N7" s="22">
-        <v>255</v>
-      </c>
-      <c r="O7" s="22">
-        <v>255</v>
-      </c>
-      <c r="P7" s="22">
-        <v>255</v>
-      </c>
-      <c r="Q7" s="22">
+      <c r="N7" s="17">
+        <v>255</v>
+      </c>
+      <c r="O7" s="17">
+        <v>255</v>
+      </c>
+      <c r="P7" s="17">
+        <v>255</v>
+      </c>
+      <c r="Q7" s="17">
         <v>255</v>
       </c>
       <c r="R7" s="5">
@@ -826,18 +826,18 @@
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="22"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="22"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="5"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -854,13 +854,13 @@
         <v>125</v>
       </c>
       <c r="E9" s="4">
-        <v>250</v>
-      </c>
-      <c r="F9" s="22">
-        <v>250</v>
+        <v>244</v>
+      </c>
+      <c r="F9" s="17">
+        <v>244</v>
       </c>
       <c r="G9" s="5">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H9" s="4">
         <v>235</v>
@@ -871,7 +871,7 @@
       <c r="J9" s="4">
         <v>214</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="17">
         <v>214</v>
       </c>
       <c r="L9" s="5">
@@ -880,16 +880,16 @@
       <c r="M9" s="4">
         <v>208</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="17">
         <v>208</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O9" s="17">
         <v>208</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="17">
         <v>208</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="17">
         <v>208</v>
       </c>
       <c r="R9" s="5">
@@ -907,13 +907,13 @@
         <v>177</v>
       </c>
       <c r="E10" s="4">
-        <v>114</v>
-      </c>
-      <c r="F10" s="22">
-        <v>114</v>
+        <v>233</v>
+      </c>
+      <c r="F10" s="17">
+        <v>233</v>
       </c>
       <c r="G10" s="5">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c r="H10" s="4">
         <v>87</v>
@@ -924,7 +924,7 @@
       <c r="J10" s="4">
         <v>0</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="17">
         <v>0</v>
       </c>
       <c r="L10" s="5">
@@ -933,16 +933,16 @@
       <c r="M10" s="4">
         <v>9</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="17">
         <v>9</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10" s="17">
         <v>9</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10" s="17">
         <v>9</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="Q10" s="17">
         <v>9</v>
       </c>
       <c r="R10" s="5">
@@ -960,13 +960,13 @@
         <v>73</v>
       </c>
       <c r="E11" s="6">
-        <v>114</v>
-      </c>
-      <c r="F11" s="23">
-        <v>114</v>
+        <v>6</v>
+      </c>
+      <c r="F11" s="18">
+        <v>6</v>
       </c>
       <c r="G11" s="7">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="H11" s="6">
         <v>57</v>
@@ -977,7 +977,7 @@
       <c r="J11" s="6">
         <v>0</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="18">
         <v>0</v>
       </c>
       <c r="L11" s="7">
@@ -986,16 +986,16 @@
       <c r="M11" s="6">
         <v>255</v>
       </c>
-      <c r="N11" s="23">
-        <v>255</v>
-      </c>
-      <c r="O11" s="23">
-        <v>255</v>
-      </c>
-      <c r="P11" s="23">
-        <v>255</v>
-      </c>
-      <c r="Q11" s="23">
+      <c r="N11" s="18">
+        <v>255</v>
+      </c>
+      <c r="O11" s="18">
+        <v>255</v>
+      </c>
+      <c r="P11" s="18">
+        <v>255</v>
+      </c>
+      <c r="Q11" s="18">
         <v>255</v>
       </c>
       <c r="R11" s="7">
